--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Plaur</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>12.205452</v>
+        <v>0.144132</v>
       </c>
       <c r="H2">
-        <v>36.616356</v>
+        <v>0.432396</v>
       </c>
       <c r="I2">
-        <v>0.2018297984138105</v>
+        <v>0.006713538071019333</v>
       </c>
       <c r="J2">
-        <v>0.2018297984138104</v>
+        <v>0.006713538071019332</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.278248333333334</v>
+        <v>30.531156</v>
       </c>
       <c r="N2">
-        <v>18.834745</v>
+        <v>91.593468</v>
       </c>
       <c r="O2">
-        <v>0.02606887289604513</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="P2">
-        <v>0.02606887289604514</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="Q2">
-        <v>76.62885867658001</v>
+        <v>4.400516576592</v>
       </c>
       <c r="R2">
-        <v>689.65972808922</v>
+        <v>39.604649189328</v>
       </c>
       <c r="S2">
-        <v>0.005261475361484037</v>
+        <v>0.0006916912317897528</v>
       </c>
       <c r="T2">
-        <v>0.005261475361484037</v>
+        <v>0.0006916912317897529</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>12.205452</v>
+        <v>0.144132</v>
       </c>
       <c r="H3">
-        <v>36.616356</v>
+        <v>0.432396</v>
       </c>
       <c r="I3">
-        <v>0.2018297984138105</v>
+        <v>0.006713538071019333</v>
       </c>
       <c r="J3">
-        <v>0.2018297984138104</v>
+        <v>0.006713538071019332</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>26.726477</v>
       </c>
       <c r="O3">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166746</v>
       </c>
       <c r="P3">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166747</v>
       </c>
       <c r="Q3">
-        <v>108.736244050868</v>
+        <v>1.284046860988</v>
       </c>
       <c r="R3">
-        <v>978.6261964578118</v>
+        <v>11.556421748892</v>
       </c>
       <c r="S3">
-        <v>0.007466026231561393</v>
+        <v>0.000201831748499036</v>
       </c>
       <c r="T3">
-        <v>0.007466026231561392</v>
+        <v>0.000201831748499036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>12.205452</v>
+        <v>0.144132</v>
       </c>
       <c r="H4">
-        <v>36.616356</v>
+        <v>0.432396</v>
       </c>
       <c r="I4">
-        <v>0.2018297984138105</v>
+        <v>0.006713538071019333</v>
       </c>
       <c r="J4">
-        <v>0.2018297984138104</v>
+        <v>0.006713538071019332</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>64.156346</v>
+        <v>95.73510733333332</v>
       </c>
       <c r="N4">
-        <v>192.469038</v>
+        <v>287.205322</v>
       </c>
       <c r="O4">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661247</v>
       </c>
       <c r="P4">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661248</v>
       </c>
       <c r="Q4">
-        <v>783.057201598392</v>
+        <v>13.798492490168</v>
       </c>
       <c r="R4">
-        <v>7047.514814385527</v>
+        <v>124.186432411512</v>
       </c>
       <c r="S4">
-        <v>0.05376611689117823</v>
+        <v>0.002168903605121193</v>
       </c>
       <c r="T4">
-        <v>0.05376611689117822</v>
+        <v>0.002168903605121193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>12.205452</v>
+        <v>0.144132</v>
       </c>
       <c r="H5">
-        <v>36.616356</v>
+        <v>0.432396</v>
       </c>
       <c r="I5">
-        <v>0.2018297984138105</v>
+        <v>0.006713538071019333</v>
       </c>
       <c r="J5">
-        <v>0.2018297984138104</v>
+        <v>0.006713538071019332</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.483737333333333</v>
+        <v>8.232281666666665</v>
       </c>
       <c r="N5">
-        <v>22.451212</v>
+        <v>24.696845</v>
       </c>
       <c r="O5">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="P5">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="Q5">
-        <v>91.34239680260799</v>
+        <v>1.18653522118</v>
       </c>
       <c r="R5">
-        <v>822.0815712234719</v>
+        <v>10.67881699062</v>
       </c>
       <c r="S5">
-        <v>0.006271733372204122</v>
+        <v>0.0001865044692856329</v>
       </c>
       <c r="T5">
-        <v>0.006271733372204122</v>
+        <v>0.0001865044692856329</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>12.205452</v>
+        <v>0.144132</v>
       </c>
       <c r="H6">
-        <v>36.616356</v>
+        <v>0.432396</v>
       </c>
       <c r="I6">
-        <v>0.2018297984138105</v>
+        <v>0.006713538071019333</v>
       </c>
       <c r="J6">
-        <v>0.2018297984138104</v>
+        <v>0.006713538071019332</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>93.12082700000001</v>
+        <v>120.0969113333333</v>
       </c>
       <c r="N6">
-        <v>279.362481</v>
+        <v>360.290734</v>
       </c>
       <c r="O6">
-        <v>0.386661194994295</v>
+        <v>0.4052746173074916</v>
       </c>
       <c r="P6">
-        <v>0.3866611949942951</v>
+        <v>0.4052746173074917</v>
       </c>
       <c r="Q6">
-        <v>1136.581784148804</v>
+        <v>17.309808024296</v>
       </c>
       <c r="R6">
-        <v>10229.23605733923</v>
+        <v>155.788272218664</v>
       </c>
       <c r="S6">
-        <v>0.07803975104014162</v>
+        <v>0.002720826572511636</v>
       </c>
       <c r="T6">
-        <v>0.07803975104014163</v>
+        <v>0.002720826572511636</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>12.205452</v>
+        <v>0.144132</v>
       </c>
       <c r="H7">
-        <v>36.616356</v>
+        <v>0.432396</v>
       </c>
       <c r="I7">
-        <v>0.2018297984138105</v>
+        <v>0.006713538071019333</v>
       </c>
       <c r="J7">
-        <v>0.2018297984138104</v>
+        <v>0.006713538071019332</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.88514866666667</v>
+        <v>32.83036666666667</v>
       </c>
       <c r="N7">
-        <v>182.655446</v>
+        <v>98.4911</v>
       </c>
       <c r="O7">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="P7">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="Q7">
-        <v>743.130759563864</v>
+        <v>4.7319064084</v>
       </c>
       <c r="R7">
-        <v>6688.176836074776</v>
+        <v>42.5871576756</v>
       </c>
       <c r="S7">
-        <v>0.05102469551724103</v>
+        <v>0.000743780443812082</v>
       </c>
       <c r="T7">
-        <v>0.05102469551724104</v>
+        <v>0.0007437804438120819</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.696535333333332</v>
+        <v>2.164065666666667</v>
       </c>
       <c r="H8">
-        <v>14.089606</v>
+        <v>6.492197</v>
       </c>
       <c r="I8">
-        <v>0.07766207917330752</v>
+        <v>0.1008002195303784</v>
       </c>
       <c r="J8">
-        <v>0.07766207917330753</v>
+        <v>0.1008002195303784</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.278248333333334</v>
+        <v>30.531156</v>
       </c>
       <c r="N8">
-        <v>18.834745</v>
+        <v>91.593468</v>
       </c>
       <c r="O8">
-        <v>0.02606887289604513</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="P8">
-        <v>0.02606887289604514</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="Q8">
-        <v>29.48601512894111</v>
+        <v>66.07142646324399</v>
       </c>
       <c r="R8">
-        <v>265.37413616047</v>
+        <v>594.642838169196</v>
       </c>
       <c r="S8">
-        <v>0.002024562870811548</v>
+        <v>0.0103853776167026</v>
       </c>
       <c r="T8">
-        <v>0.002024562870811548</v>
+        <v>0.0103853776167026</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.696535333333332</v>
+        <v>2.164065666666667</v>
       </c>
       <c r="H9">
-        <v>14.089606</v>
+        <v>6.492197</v>
       </c>
       <c r="I9">
-        <v>0.07766207917330752</v>
+        <v>0.1008002195303784</v>
       </c>
       <c r="J9">
-        <v>0.07766207917330753</v>
+        <v>0.1008002195303784</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>26.726477</v>
       </c>
       <c r="O9">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166746</v>
       </c>
       <c r="P9">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166747</v>
       </c>
       <c r="Q9">
-        <v>41.84061452200688</v>
+        <v>19.27928375555211</v>
       </c>
       <c r="R9">
-        <v>376.5655306980619</v>
+        <v>173.513553799969</v>
       </c>
       <c r="S9">
-        <v>0.002872851902258236</v>
+        <v>0.003030396840188613</v>
       </c>
       <c r="T9">
-        <v>0.002872851902258236</v>
+        <v>0.003030396840188614</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.696535333333332</v>
+        <v>2.164065666666667</v>
       </c>
       <c r="H10">
-        <v>14.089606</v>
+        <v>6.492197</v>
       </c>
       <c r="I10">
-        <v>0.07766207917330752</v>
+        <v>0.1008002195303784</v>
       </c>
       <c r="J10">
-        <v>0.07766207917330753</v>
+        <v>0.1008002195303784</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>64.156346</v>
+        <v>95.73510733333332</v>
       </c>
       <c r="N10">
-        <v>192.469038</v>
+        <v>287.205322</v>
       </c>
       <c r="O10">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661247</v>
       </c>
       <c r="P10">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661248</v>
       </c>
       <c r="Q10">
-        <v>301.3125458465586</v>
+        <v>207.1770588747148</v>
       </c>
       <c r="R10">
-        <v>2711.812912619027</v>
+        <v>1864.593529872434</v>
       </c>
       <c r="S10">
-        <v>0.02068866173211354</v>
+        <v>0.03256493926506487</v>
       </c>
       <c r="T10">
-        <v>0.02068866173211354</v>
+        <v>0.03256493926506487</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.696535333333332</v>
+        <v>2.164065666666667</v>
       </c>
       <c r="H11">
-        <v>14.089606</v>
+        <v>6.492197</v>
       </c>
       <c r="I11">
-        <v>0.07766207917330752</v>
+        <v>0.1008002195303784</v>
       </c>
       <c r="J11">
-        <v>0.07766207917330753</v>
+        <v>0.1008002195303784</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.483737333333333</v>
+        <v>8.232281666666665</v>
       </c>
       <c r="N11">
-        <v>22.451212</v>
+        <v>24.696845</v>
       </c>
       <c r="O11">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="P11">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="Q11">
-        <v>35.14763681138577</v>
+        <v>17.81519811316278</v>
       </c>
       <c r="R11">
-        <v>316.3287313024719</v>
+        <v>160.336783018465</v>
       </c>
       <c r="S11">
-        <v>0.002413300005915592</v>
+        <v>0.002800265858108719</v>
       </c>
       <c r="T11">
-        <v>0.002413300005915592</v>
+        <v>0.00280026585810872</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.696535333333332</v>
+        <v>2.164065666666667</v>
       </c>
       <c r="H12">
-        <v>14.089606</v>
+        <v>6.492197</v>
       </c>
       <c r="I12">
-        <v>0.07766207917330752</v>
+        <v>0.1008002195303784</v>
       </c>
       <c r="J12">
-        <v>0.07766207917330753</v>
+        <v>0.1008002195303784</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.12082700000001</v>
+        <v>120.0969113333333</v>
       </c>
       <c r="N12">
-        <v>279.362481</v>
+        <v>360.290734</v>
       </c>
       <c r="O12">
-        <v>0.386661194994295</v>
+        <v>0.4052746173074916</v>
       </c>
       <c r="P12">
-        <v>0.3866611949942951</v>
+        <v>0.4052746173074917</v>
       </c>
       <c r="Q12">
-        <v>437.3452542747206</v>
+        <v>259.8976024891775</v>
       </c>
       <c r="R12">
-        <v>3936.107288472485</v>
+        <v>2339.078422402598</v>
       </c>
       <c r="S12">
-        <v>0.03002891233889263</v>
+        <v>0.04085177039468525</v>
       </c>
       <c r="T12">
-        <v>0.03002891233889264</v>
+        <v>0.04085177039468525</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.696535333333332</v>
+        <v>2.164065666666667</v>
       </c>
       <c r="H13">
-        <v>14.089606</v>
+        <v>6.492197</v>
       </c>
       <c r="I13">
-        <v>0.07766207917330752</v>
+        <v>0.1008002195303784</v>
       </c>
       <c r="J13">
-        <v>0.07766207917330753</v>
+        <v>0.1008002195303784</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.88514866666667</v>
+        <v>32.83036666666667</v>
       </c>
       <c r="N13">
-        <v>182.655446</v>
+        <v>98.4911</v>
       </c>
       <c r="O13">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="P13">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="Q13">
-        <v>285.9492519882529</v>
+        <v>71.04706932741112</v>
       </c>
       <c r="R13">
-        <v>2573.543267894276</v>
+        <v>639.4236239467</v>
       </c>
       <c r="S13">
-        <v>0.01963379032331596</v>
+        <v>0.01116746955562833</v>
       </c>
       <c r="T13">
-        <v>0.01963379032331596</v>
+        <v>0.01116746955562833</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.57199666666667</v>
+        <v>2.897284333333333</v>
       </c>
       <c r="H14">
-        <v>130.71599</v>
+        <v>8.691853</v>
       </c>
       <c r="I14">
-        <v>0.7205081224128821</v>
+        <v>0.1349528812089002</v>
       </c>
       <c r="J14">
-        <v>0.720508122412882</v>
+        <v>0.1349528812089002</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.278248333333334</v>
+        <v>30.531156</v>
       </c>
       <c r="N14">
-        <v>18.834745</v>
+        <v>91.593468</v>
       </c>
       <c r="O14">
-        <v>0.02606887289604513</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="P14">
-        <v>0.02606887289604514</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="Q14">
-        <v>273.5558154525056</v>
+        <v>88.457439957356</v>
       </c>
       <c r="R14">
-        <v>2462.002339072551</v>
+        <v>796.116959616204</v>
       </c>
       <c r="S14">
-        <v>0.01878283466374955</v>
+        <v>0.01390410297066915</v>
       </c>
       <c r="T14">
-        <v>0.01878283466374955</v>
+        <v>0.01390410297066915</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.57199666666667</v>
+        <v>2.897284333333333</v>
       </c>
       <c r="H15">
-        <v>130.71599</v>
+        <v>8.691853</v>
       </c>
       <c r="I15">
-        <v>0.7205081224128821</v>
+        <v>0.1349528812089002</v>
       </c>
       <c r="J15">
-        <v>0.720508122412882</v>
+        <v>0.1349528812089002</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>26.726477</v>
       </c>
       <c r="O15">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166746</v>
       </c>
       <c r="P15">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166747</v>
       </c>
       <c r="Q15">
-        <v>388.1753222519145</v>
+        <v>25.81140103243122</v>
       </c>
       <c r="R15">
-        <v>3493.57790026723</v>
+        <v>232.302609291881</v>
       </c>
       <c r="S15">
-        <v>0.02665281630494626</v>
+        <v>0.004057141806784964</v>
       </c>
       <c r="T15">
-        <v>0.02665281630494626</v>
+        <v>0.004057141806784965</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.57199666666667</v>
+        <v>2.897284333333333</v>
       </c>
       <c r="H16">
-        <v>130.71599</v>
+        <v>8.691853</v>
       </c>
       <c r="I16">
-        <v>0.7205081224128821</v>
+        <v>0.1349528812089002</v>
       </c>
       <c r="J16">
-        <v>0.720508122412882</v>
+        <v>0.1349528812089002</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>64.156346</v>
+        <v>95.73510733333332</v>
       </c>
       <c r="N16">
-        <v>192.469038</v>
+        <v>287.205322</v>
       </c>
       <c r="O16">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661247</v>
       </c>
       <c r="P16">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661248</v>
       </c>
       <c r="Q16">
-        <v>2795.420094057514</v>
+        <v>277.3718266268517</v>
       </c>
       <c r="R16">
-        <v>25158.78084651762</v>
+        <v>2496.346439641666</v>
       </c>
       <c r="S16">
-        <v>0.1919385751516641</v>
+        <v>0.04359844056578565</v>
       </c>
       <c r="T16">
-        <v>0.191938575151664</v>
+        <v>0.04359844056578566</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.57199666666667</v>
+        <v>2.897284333333333</v>
       </c>
       <c r="H17">
-        <v>130.71599</v>
+        <v>8.691853</v>
       </c>
       <c r="I17">
-        <v>0.7205081224128821</v>
+        <v>0.1349528812089002</v>
       </c>
       <c r="J17">
-        <v>0.720508122412882</v>
+        <v>0.1349528812089002</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.483737333333333</v>
+        <v>8.232281666666665</v>
       </c>
       <c r="N17">
-        <v>22.451212</v>
+        <v>24.696845</v>
       </c>
       <c r="O17">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="P17">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="Q17">
-        <v>326.0813781422089</v>
+        <v>23.85126070042055</v>
       </c>
       <c r="R17">
-        <v>2934.73240327988</v>
+        <v>214.661346303785</v>
       </c>
       <c r="S17">
-        <v>0.0223893343391052</v>
+        <v>0.003749038915424139</v>
       </c>
       <c r="T17">
-        <v>0.02238933433910519</v>
+        <v>0.003749038915424139</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.57199666666667</v>
+        <v>2.897284333333333</v>
       </c>
       <c r="H18">
-        <v>130.71599</v>
+        <v>8.691853</v>
       </c>
       <c r="I18">
-        <v>0.7205081224128821</v>
+        <v>0.1349528812089002</v>
       </c>
       <c r="J18">
-        <v>0.720508122412882</v>
+        <v>0.1349528812089002</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>93.12082700000001</v>
+        <v>120.0969113333333</v>
       </c>
       <c r="N18">
-        <v>279.362481</v>
+        <v>360.290734</v>
       </c>
       <c r="O18">
-        <v>0.386661194994295</v>
+        <v>0.4052746173074916</v>
       </c>
       <c r="P18">
-        <v>0.3866611949942951</v>
+        <v>0.4052746173074917</v>
       </c>
       <c r="Q18">
-        <v>4057.460363641244</v>
+        <v>347.9548996877891</v>
       </c>
       <c r="R18">
-        <v>36517.14327277119</v>
+        <v>3131.594097190102</v>
       </c>
       <c r="S18">
-        <v>0.2785925316152608</v>
+        <v>0.0546929772864804</v>
       </c>
       <c r="T18">
-        <v>0.2785925316152608</v>
+        <v>0.05469297728648041</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.897284333333333</v>
+      </c>
+      <c r="H19">
+        <v>8.691853</v>
+      </c>
+      <c r="I19">
+        <v>0.1349528812089002</v>
+      </c>
+      <c r="J19">
+        <v>0.1349528812089002</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>32.83036666666667</v>
+      </c>
+      <c r="N19">
+        <v>98.4911</v>
+      </c>
+      <c r="O19">
+        <v>0.110788147165322</v>
+      </c>
+      <c r="P19">
+        <v>0.110788147165322</v>
+      </c>
+      <c r="Q19">
+        <v>95.11890700092223</v>
+      </c>
+      <c r="R19">
+        <v>856.0701630083</v>
+      </c>
+      <c r="S19">
+        <v>0.01495117966375586</v>
+      </c>
+      <c r="T19">
+        <v>0.01495117966375586</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>16.26337666666667</v>
+      </c>
+      <c r="H20">
+        <v>48.79013</v>
+      </c>
+      <c r="I20">
+        <v>0.7575333611897022</v>
+      </c>
+      <c r="J20">
+        <v>0.757533361189702</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>30.531156</v>
+      </c>
+      <c r="N20">
+        <v>91.593468</v>
+      </c>
+      <c r="O20">
+        <v>0.1030293154626785</v>
+      </c>
+      <c r="P20">
+        <v>0.1030293154626785</v>
+      </c>
+      <c r="Q20">
+        <v>496.53969009676</v>
+      </c>
+      <c r="R20">
+        <v>4468.857210870839</v>
+      </c>
+      <c r="S20">
+        <v>0.07804814364351699</v>
+      </c>
+      <c r="T20">
+        <v>0.07804814364351699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>16.26337666666667</v>
+      </c>
+      <c r="H21">
+        <v>48.79013</v>
+      </c>
+      <c r="I21">
+        <v>0.7575333611897022</v>
+      </c>
+      <c r="J21">
+        <v>0.757533361189702</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.908825666666667</v>
+      </c>
+      <c r="N21">
+        <v>26.726477</v>
+      </c>
+      <c r="O21">
+        <v>0.03006339524166746</v>
+      </c>
+      <c r="P21">
+        <v>0.03006339524166747</v>
+      </c>
+      <c r="Q21">
+        <v>144.8875874746678</v>
+      </c>
+      <c r="R21">
+        <v>1303.98828727201</v>
+      </c>
+      <c r="S21">
+        <v>0.02277402484619485</v>
+      </c>
+      <c r="T21">
+        <v>0.02277402484619485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>16.26337666666667</v>
+      </c>
+      <c r="H22">
+        <v>48.79013</v>
+      </c>
+      <c r="I22">
+        <v>0.7575333611897022</v>
+      </c>
+      <c r="J22">
+        <v>0.757533361189702</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>95.73510733333332</v>
+      </c>
+      <c r="N22">
+        <v>287.205322</v>
+      </c>
+      <c r="O22">
+        <v>0.3230641700661247</v>
+      </c>
+      <c r="P22">
+        <v>0.3230641700661248</v>
+      </c>
+      <c r="Q22">
+        <v>1556.976110785762</v>
+      </c>
+      <c r="R22">
+        <v>14012.78499707186</v>
+      </c>
+      <c r="S22">
+        <v>0.244731886630153</v>
+      </c>
+      <c r="T22">
+        <v>0.244731886630153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>16.26337666666667</v>
+      </c>
+      <c r="H23">
+        <v>48.79013</v>
+      </c>
+      <c r="I23">
+        <v>0.7575333611897022</v>
+      </c>
+      <c r="J23">
+        <v>0.757533361189702</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.232281666666665</v>
+      </c>
+      <c r="N23">
+        <v>24.696845</v>
+      </c>
+      <c r="O23">
+        <v>0.02778035475671555</v>
+      </c>
+      <c r="P23">
+        <v>0.02778035475671555</v>
+      </c>
+      <c r="Q23">
+        <v>133.8846975710944</v>
+      </c>
+      <c r="R23">
+        <v>1204.96227813985</v>
+      </c>
+      <c r="S23">
+        <v>0.02104454551389706</v>
+      </c>
+      <c r="T23">
+        <v>0.02104454551389706</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>43.57199666666667</v>
-      </c>
-      <c r="H19">
-        <v>130.71599</v>
-      </c>
-      <c r="I19">
-        <v>0.7205081224128821</v>
-      </c>
-      <c r="J19">
-        <v>0.720508122412882</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>60.88514866666667</v>
-      </c>
-      <c r="N19">
-        <v>182.655446</v>
-      </c>
-      <c r="O19">
-        <v>0.2528105161787131</v>
-      </c>
-      <c r="P19">
-        <v>0.2528105161787131</v>
-      </c>
-      <c r="Q19">
-        <v>2652.887494753505</v>
-      </c>
-      <c r="R19">
-        <v>23875.98745278154</v>
-      </c>
-      <c r="S19">
-        <v>0.1821520303381561</v>
-      </c>
-      <c r="T19">
-        <v>0.1821520303381561</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>16.26337666666667</v>
+      </c>
+      <c r="H24">
+        <v>48.79013</v>
+      </c>
+      <c r="I24">
+        <v>0.7575333611897022</v>
+      </c>
+      <c r="J24">
+        <v>0.757533361189702</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>120.0969113333333</v>
+      </c>
+      <c r="N24">
+        <v>360.290734</v>
+      </c>
+      <c r="O24">
+        <v>0.4052746173074916</v>
+      </c>
+      <c r="P24">
+        <v>0.4052746173074917</v>
+      </c>
+      <c r="Q24">
+        <v>1953.181305517269</v>
+      </c>
+      <c r="R24">
+        <v>17578.63174965542</v>
+      </c>
+      <c r="S24">
+        <v>0.3070090430538144</v>
+      </c>
+      <c r="T24">
+        <v>0.3070090430538144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>16.26337666666667</v>
+      </c>
+      <c r="H25">
+        <v>48.79013</v>
+      </c>
+      <c r="I25">
+        <v>0.7575333611897022</v>
+      </c>
+      <c r="J25">
+        <v>0.757533361189702</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>32.83036666666667</v>
+      </c>
+      <c r="N25">
+        <v>98.4911</v>
+      </c>
+      <c r="O25">
+        <v>0.110788147165322</v>
+      </c>
+      <c r="P25">
+        <v>0.110788147165322</v>
+      </c>
+      <c r="Q25">
+        <v>533.9326192047778</v>
+      </c>
+      <c r="R25">
+        <v>4805.393572843</v>
+      </c>
+      <c r="S25">
+        <v>0.08392571750212578</v>
+      </c>
+      <c r="T25">
+        <v>0.08392571750212577</v>
       </c>
     </row>
   </sheetData>
